--- a/TIMBAO-BUKAL-BUKAL CIS.xlsx
+++ b/TIMBAO-BUKAL-BUKAL CIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f0fc3e898432a/Desktop/STREAMLIT_NIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{28B93E4D-7A70-4E91-A24C-BDEE758D8FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A283C4-BBBD-406D-803F-83CE2783EE07}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{28B93E4D-7A70-4E91-A24C-BDEE758D8FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975662AF-2E81-4902-A0C4-DD34E44AC009}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{96584A25-012A-49C9-85BE-5760A0C362FD}"/>
   </bookViews>
@@ -210,6 +210,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -536,7 +540,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
